--- a/devel_logistic_management/static/excel/template_import_inv_pl.xlsx
+++ b/devel_logistic_management/static/excel/template_import_inv_pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\odoo-14\dvl-customs\devel_logistic_management\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\odoo14\odoo-14.0\odoo-14.0\dvl-customs-14.0\devel_logistic_management\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06925F5-A4D8-43AB-9591-1F8B3163DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2B9CAA-C4EC-48D7-A928-8959180112B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1267">
   <si>
     <t>Description</t>
   </si>
@@ -3818,6 +3818,18 @@
   </si>
   <si>
     <t>VOtherInfo</t>
+  </si>
+  <si>
+    <t>NBR Package</t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
+    <t>Supplementary Unit Code</t>
+  </si>
+  <si>
+    <t>Suplementary Qty</t>
   </si>
 </sst>
 </file>
@@ -4308,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4330,17 +4342,21 @@
     <col min="16" max="16" width="10.796875" style="18"/>
     <col min="19" max="20" width="14.296875" customWidth="1"/>
     <col min="21" max="21" width="17.69921875" customWidth="1"/>
-    <col min="22" max="22" width="13.296875" customWidth="1"/>
-    <col min="23" max="23" width="14.69921875" customWidth="1"/>
-    <col min="26" max="27" width="16.796875" customWidth="1"/>
-    <col min="29" max="29" width="27.796875" customWidth="1"/>
-    <col min="30" max="30" width="19.296875" customWidth="1"/>
-    <col min="31" max="31" width="7.5" customWidth="1"/>
-    <col min="32" max="32" width="19.5" customWidth="1"/>
-    <col min="33" max="33" width="14.796875" customWidth="1"/>
+    <col min="22" max="22" width="18.69921875" customWidth="1"/>
+    <col min="23" max="23" width="18.19921875" customWidth="1"/>
+    <col min="24" max="24" width="25.59765625" customWidth="1"/>
+    <col min="25" max="25" width="20.59765625" customWidth="1"/>
+    <col min="26" max="26" width="13.296875" customWidth="1"/>
+    <col min="27" max="27" width="14.69921875" customWidth="1"/>
+    <col min="30" max="31" width="16.796875" customWidth="1"/>
+    <col min="33" max="33" width="27.796875" customWidth="1"/>
+    <col min="34" max="34" width="19.296875" customWidth="1"/>
+    <col min="35" max="35" width="7.5" customWidth="1"/>
+    <col min="36" max="36" width="19.5" customWidth="1"/>
+    <col min="37" max="37" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" spans="1:38" s="1" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>1258</v>
       </c>
@@ -4405,46 +4421,58 @@
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="16.8">
+    <row r="2" spans="1:38" ht="16.8">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -4483,11 +4511,11 @@
       <c r="P2" s="18">
         <v>44647</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:38">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4501,31 +4529,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$17</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W1048576</xm:sqref>
+          <xm:sqref>AA2:AA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X1048576</xm:sqref>
+          <xm:sqref>AB2:AB1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
+          <xm:sqref>AD2:AD1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$603</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA1048576</xm:sqref>
+          <xm:sqref>AE2:AE1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet2!$F$2:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y1048576</xm:sqref>
+          <xm:sqref>AC2:AC1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -4543,7 +4571,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V1048576</xm:sqref>
+          <xm:sqref>Z2:Z1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
